--- a/public/Laporan KAS.xlsx
+++ b/public/Laporan KAS.xlsx
@@ -719,35 +719,35 @@
       </c>
       <c r="D3" s="3">
         <f>IF(konT!E6&gt;500,konT!E6,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <f>IF(konT!F6&gt;500,konT!F6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>IF(konT!G6&gt;500,konT!G6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <f>IF(konT!H6&gt;500,konT!H6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <f>IF(konT!I6&gt;500,konT!I6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <f>IF(konT!J6&gt;500,konT!J6,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <f>IF(konT!K6&gt;500,konT!K6,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3">
         <f>IF(konT!L6&gt;500,konT!L6,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3">
         <f>IF(konT!M6&gt;500,konT!M6,0)</f>
@@ -767,7 +767,7 @@
       </c>
       <c r="P3" s="9">
         <f>konT!Q6</f>
-        <v>1200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" customHeight="1" ht="20">
@@ -787,15 +787,15 @@
       </c>
       <c r="F4" s="3">
         <f>IF(TRAKan!G5&gt;500,TRAKan!G5,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <f>IF(TRAKan!H5&gt;500,TRAKan!H5,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <f>IF(TRAKan!I5&gt;500,TRAKan!I5,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <f>IF(TRAKan!J5&gt;500,TRAKan!J5,0)</f>
@@ -827,7 +827,7 @@
       </c>
       <c r="P4" s="9">
         <f>TRAKan!Q5</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" customHeight="1" ht="22">
@@ -840,35 +840,35 @@
       </c>
       <c r="D5" s="9">
         <f>SUM(D3:D4)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="9">
         <f>SUM(E3:E4)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="9">
         <f>SUM(F3:F4)</f>
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="9">
         <f>SUM(G3:G4)</f>
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="9">
         <f>SUM(H3:H4)</f>
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="9">
         <f>SUM(I3:I4)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="9">
         <f>SUM(J3:J4)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="9">
         <f>SUM(K3:K4)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L5" s="9">
         <f>SUM(L3:L4)</f>
@@ -888,7 +888,7 @@
       </c>
       <c r="P5" s="9">
         <f>SUM(P3:P4)</f>
-        <v>1700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" customHeight="1" ht="29.5">
@@ -980,7 +980,7 @@
       </c>
       <c r="K9" s="3">
         <f>konT!L12</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <f>konT!M12</f>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="P9" s="10">
         <f>konT!Q12</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" customHeight="1" ht="20">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="K10" s="3">
         <f>TRAKan!L11</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <f>TRAKan!M11</f>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="P10" s="10">
         <f>TRAKan!Q11</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" customHeight="1" ht="22">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="K11" s="10">
         <f>SUM(K9:K10)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="L11" s="10">
         <f>SUM(L9:L10)</f>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="P11" s="10">
         <f>SUM(P9:P10)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" customHeight="1" ht="29.5">
@@ -1185,31 +1185,31 @@
       </c>
       <c r="D15" s="3">
         <f>D3-D9</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <f>E3-E9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <f>F3-F9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <f>G3-G9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <f>H3-H9</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <f>I3-I9</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <f>J3-J9</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <f>K3-K9</f>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="P15" s="11">
         <f>SUM(D15:O15)</f>
-        <v>1100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" customHeight="1" ht="20">
@@ -1253,15 +1253,15 @@
       </c>
       <c r="F16" s="3">
         <f>F4-F10</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <f>G4-G10</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <f>H4-H10</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
         <f>I4-I10</f>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="K16" s="3">
         <f>K4-K10</f>
-        <v>-100000</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3">
         <f>L4-L10</f>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="P16" s="11">
         <f>SUM(D16:O16)</f>
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" customHeight="1" ht="20">
@@ -1306,35 +1306,35 @@
       </c>
       <c r="D17" s="11">
         <f>SUM(D15:D16)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11">
         <f>SUM(E15:E16)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <f>SUM(F15:F16)</f>
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
         <f>SUM(G15:G16)</f>
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
         <f>SUM(H15:H16)</f>
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f>SUM(I15:I16)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J17" s="11">
         <f>SUM(J15:J16)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <f>SUM(K15:K16)</f>
-        <v>-100000</v>
+        <v>0</v>
       </c>
       <c r="L17" s="11">
         <f>SUM(L15:L16)</f>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="P17" s="11">
         <f>SUM(P15:P16)</f>
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1463,20 +1463,20 @@
       <c r="D3" s="5">
         <v>100000</v>
       </c>
-      <c r="E3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100000</v>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>28</v>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="Q3" s="2">
         <f>SUM(E3:P3)</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="22">
@@ -1532,14 +1532,14 @@
       <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="K4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="L4" s="3">
-        <v>100000</v>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>28</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="Q4" s="2">
         <f>SUM(E4:P4)</f>
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="22">
@@ -1574,17 +1574,17 @@
       <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>100000</v>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>28</v>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="Q5" s="2">
         <f>SUM(E5:P5)</f>
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1621,35 +1621,35 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6">
         <f>SUM(E3:E5)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <f>SUM(F3:F5)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6">
         <f>SUM(G3:G5)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="6">
         <f>SUM(H3:H5)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6">
         <f>SUM(I3:I5)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="6">
         <f>SUM(J3:J5)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6">
         <f>SUM(K3:K5)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6">
         <f>SUM(L3:L5)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6">
         <f>SUM(M3:M5)</f>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="Q6" s="6">
         <f>SUM(Q3:Q5)</f>
-        <v>1200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="26.5">
@@ -1756,8 +1756,8 @@
       <c r="K11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="3">
-        <v>100000</v>
+      <c r="L11" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>28</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Q11" s="7">
         <f>SUM(E11:P11)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="L12" s="6">
         <f>SUM(L11:L11)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="6">
         <f>SUM(M11:M11)</f>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="Q12" s="6">
         <f>SUM(Q11:Q11)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1954,14 +1954,14 @@
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100000</v>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>28</v>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="Q3" s="2">
         <f>SUM(E3:P3)</f>
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" customHeight="1" ht="22">
@@ -2011,11 +2011,11 @@
       <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I4" s="3">
-        <v>100000</v>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>28</v>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="Q4" s="2">
         <f>SUM(E4:P4)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2060,15 +2060,15 @@
       </c>
       <c r="G5" s="6">
         <f>SUM(G3:G4)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="6">
         <f>SUM(H3:H4)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6">
         <f>SUM(I3:I4)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="6">
         <f>SUM(J3:J4)</f>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="Q5" s="6">
         <f>SUM(Q3:Q4)</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="26.5">
@@ -2187,8 +2187,8 @@
       <c r="K10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="3">
-        <v>100000</v>
+      <c r="L10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>28</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="Q10" s="7">
         <f>SUM(E10:P10)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="L11" s="6">
         <f>SUM(L10:L10)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="M11" s="6">
         <f>SUM(M10:M10)</f>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="Q11" s="6">
         <f>SUM(Q10:Q10)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/Laporan KAS.xlsx
+++ b/public/Laporan KAS.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
-  <si>
-    <t>PEMASUKAN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+  <si>
+    <t>PEMASUKAN HARIAN BULAN AUGUST 2024</t>
   </si>
   <si>
     <t>Kontrakan</t>
@@ -27,40 +27,31 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>JAN</t>
-  </si>
-  <si>
-    <t>FEB</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>APR</t>
-  </si>
-  <si>
-    <t>MEI</t>
-  </si>
-  <si>
-    <t>JUN</t>
-  </si>
-  <si>
-    <t>JUL</t>
-  </si>
-  <si>
-    <t>AGU</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>OKT</t>
-  </si>
-  <si>
-    <t>NOV</t>
-  </si>
-  <si>
-    <t>DES</t>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
   <si>
     <t>T O T A L</t>
@@ -69,10 +60,10 @@
     <t>konT</t>
   </si>
   <si>
-    <t>PENGELUARAN</t>
-  </si>
-  <si>
-    <t>PROFIT</t>
+    <t>PENGELUARAN HARIAN BULAN AUGUST 2024</t>
+  </si>
+  <si>
+    <t>PROFIT HARIAN BULAN AUGUST 2024</t>
   </si>
   <si>
     <t>Kamar</t>
@@ -96,7 +87,7 @@
     <t>Andri</t>
   </si>
   <si>
-    <t>1-Jan</t>
+    <t>01 Januari 2024</t>
   </si>
   <si>
     <t>-</t>
@@ -105,7 +96,7 @@
     <t>UDIN</t>
   </si>
   <si>
-    <t>7-Jul</t>
+    <t>07 Juli 2024</t>
   </si>
   <si>
     <t>k2</t>
@@ -114,10 +105,7 @@
     <t>Yana</t>
   </si>
   <si>
-    <t>2-Feb</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>02 Februari 2024</t>
   </si>
   <si>
     <t>Item Pengeluaran</t>
@@ -134,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -180,17 +168,8 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,36 +191,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFd428"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF604a7b"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF10243e"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -273,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -284,29 +233,11 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="3" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="8" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="9" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,114 +538,156 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="true" style="0"/>
-    <col min="2" max="2" width="26" customWidth="true" style="0"/>
-    <col min="3" max="3" width="7" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" customWidth="true" style="0"/>
-    <col min="12" max="12" width="11" customWidth="true" style="0"/>
-    <col min="13" max="13" width="11" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11" customWidth="true" style="0"/>
-    <col min="15" max="15" width="11" customWidth="true" style="0"/>
-    <col min="16" max="16" width="11" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customHeight="1" ht="29.5">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:35" customHeight="1" ht="20">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" customHeight="1" ht="22">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:35">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="2">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="2">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="2">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="2">
         <v>15</v>
       </c>
+      <c r="S2" s="2">
+        <v>16</v>
+      </c>
+      <c r="T2" s="2">
+        <v>17</v>
+      </c>
+      <c r="U2" s="2">
+        <v>18</v>
+      </c>
+      <c r="V2" s="2">
+        <v>19</v>
+      </c>
+      <c r="W2" s="2">
+        <v>20</v>
+      </c>
+      <c r="X2" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" customHeight="1" ht="20">
+    <row r="3" spans="1:35">
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3">
         <f>IF(konT!E6&gt;500,konT!E6,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <f>IF(konT!F6&gt;500,konT!F6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>IF(konT!G6&gt;500,konT!G6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <f>IF(konT!H6&gt;500,konT!H6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <f>IF(konT!I6&gt;500,konT!I6,0)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <f>IF(konT!J6&gt;500,konT!J6,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <f>IF(konT!K6&gt;500,konT!K6,0)</f>
@@ -722,7 +695,7 @@
       </c>
       <c r="K3" s="3">
         <f>IF(konT!L6&gt;500,konT!L6,0)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3">
         <f>IF(konT!M6&gt;500,konT!M6,0)</f>
@@ -740,127 +713,340 @@
         <f>IF(konT!P6&gt;500,konT!P6,0)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="9">
-        <f>konT!Q6</f>
-        <v>1200000</v>
+      <c r="P3" s="3">
+        <f>IF(konT!Q6&gt;500,konT!Q6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>IF(konT!R6&gt;500,konT!R6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <f>IF(konT!S6&gt;500,konT!S6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <f>IF(konT!T6&gt;500,konT!T6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <f>IF(konT!U6&gt;500,konT!U6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <f>IF(konT!V6&gt;500,konT!V6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <f>IF(konT!W6&gt;500,konT!W6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <f>IF(konT!X6&gt;500,konT!X6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <f>IF(konT!Y6&gt;500,konT!Y6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>IF(konT!Z6&gt;500,konT!Z6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>IF(konT!AA6&gt;500,konT!AA6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>IF(konT!AB6&gt;500,konT!AB6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>IF(konT!AC6&gt;500,konT!AC6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>IF(konT!AD6&gt;500,konT!AD6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <f>IF(konT!AE6&gt;500,konT!AE6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <f>IF(konT!AF6&gt;500,konT!AF6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <f>IF(konT!AG6&gt;500,konT!AG6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <f>IF(konT!AH6&gt;500,konT!AH6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <f>IF(konT!AI6&gt;500,konT!AI6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <f>konT!AJ6</f>
+        <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" customHeight="1" ht="22">
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="9">
+    <row r="4" spans="1:35">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
         <f>SUM(C3:C3)</f>
         <v>2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <f>SUM(D3:D3)</f>
-        <v>100000</v>
-      </c>
-      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <f>SUM(E3:E3)</f>
-        <v>200000</v>
-      </c>
-      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <f>SUM(F3:F3)</f>
-        <v>200000</v>
-      </c>
-      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <f>SUM(G3:G3)</f>
-        <v>200000</v>
-      </c>
-      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <f>SUM(H3:H3)</f>
-        <v>200000</v>
-      </c>
-      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <f>SUM(I3:I3)</f>
-        <v>100000</v>
-      </c>
-      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <f>SUM(J3:J3)</f>
         <v>100000</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="4">
         <f>SUM(K3:K3)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUM(L3:L3)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM(M3:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUM(N3:N3)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUM(O3:O3)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <f>SUM(P3:P3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>SUM(Q3:Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <f>SUM(R3:R3)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUM(S3:S3)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <f>SUM(T3:T3)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <f>SUM(U3:U3)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <f>SUM(V3:V3)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <f>SUM(W3:W3)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <f>SUM(X3:X3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>SUM(Y3:Y3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <f>SUM(Z3:Z3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>SUM(AA3:AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>SUM(AB3:AB3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>SUM(AC3:AC3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <f>SUM(AD3:AD3)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>SUM(AE3:AE3)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>SUM(AF3:AF3)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>SUM(AG3:AG3)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>SUM(AH3:AH3)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>SUM(AI3:AI3)</f>
         <v>100000</v>
       </c>
-      <c r="L4" s="9">
-        <f>SUM(L3:L3)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <f>SUM(M3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <f>SUM(N3:N3)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <f>SUM(O3:O3)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="9">
-        <f>SUM(P3:P3)</f>
-        <v>1200000</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" customHeight="1" ht="29.5">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:35">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="2">
+        <v>11</v>
+      </c>
+      <c r="O7" s="2">
+        <v>12</v>
+      </c>
+      <c r="P7" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>14</v>
+      </c>
+      <c r="R7" s="2">
+        <v>15</v>
+      </c>
+      <c r="S7" s="2">
+        <v>16</v>
+      </c>
+      <c r="T7" s="2">
         <v>17</v>
       </c>
+      <c r="U7" s="2">
+        <v>18</v>
+      </c>
+      <c r="V7" s="2">
+        <v>19</v>
+      </c>
+      <c r="W7" s="2">
+        <v>20</v>
+      </c>
+      <c r="X7" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>31</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" customHeight="1" ht="22">
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="10" t="s">
+    <row r="8" spans="1:35">
+      <c r="B8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" customHeight="1" ht="20">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -895,7 +1081,7 @@
       </c>
       <c r="K8" s="3">
         <f>konT!L12</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <f>konT!M12</f>
@@ -913,154 +1099,367 @@
         <f>konT!P12</f>
         <v>0</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="3">
         <f>konT!Q12</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>konT!R12</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <f>konT!S12</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <f>konT!T12</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <f>konT!U12</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <f>konT!V12</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <f>konT!W12</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <f>konT!X12</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <f>konT!Y12</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <f>konT!Z12</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>konT!AA12</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <f>konT!AB12</f>
         <v>100000</v>
       </c>
+      <c r="AB8" s="3">
+        <f>konT!AC12</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <f>konT!AD12</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <f>konT!AE12</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <f>konT!AF12</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <f>konT!AG12</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <f>konT!AH12</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <f>konT!AI12</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <f>konT!AJ12</f>
+        <v>100000</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" customHeight="1" ht="22">
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="10">
+    <row r="9" spans="1:35">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
         <f>SUM(C8:C8)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="4">
         <f>SUM(D8:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <f>SUM(E8:E8)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="4">
         <f>SUM(F8:F8)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="4">
         <f>SUM(G8:G8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="4">
         <f>SUM(H8:H8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="4">
         <f>SUM(I8:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="4">
         <f>SUM(J8:J8)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="4">
         <f>SUM(K8:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM(L8:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM(M8:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM(N8:N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM(O8:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <f>SUM(P8:P8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>SUM(Q8:Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f>SUM(R8:R8)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <f>SUM(S8:S8)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <f>SUM(T8:T8)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <f>SUM(U8:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <f>SUM(V8:V8)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <f>SUM(W8:W8)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <f>SUM(X8:X8)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUM(Y8:Y8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <f>SUM(Z8:Z8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>SUM(AA8:AA8)</f>
         <v>100000</v>
       </c>
-      <c r="L9" s="10">
-        <f>SUM(L8:L8)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <f>SUM(M8:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <f>SUM(N8:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <f>SUM(O8:O8)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <f>SUM(P8:P8)</f>
+      <c r="AB9" s="4">
+        <f>SUM(AB8:AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>SUM(AC8:AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <f>SUM(AD8:AD8)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>SUM(AE8:AE8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <f>SUM(AF8:AF8)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <f>SUM(AG8:AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <f>SUM(AH8:AH8)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>SUM(AI8:AI8)</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" customHeight="1" ht="29.5">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:35">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="2">
+        <v>10</v>
+      </c>
+      <c r="N12" s="2">
+        <v>11</v>
+      </c>
+      <c r="O12" s="2">
+        <v>12</v>
+      </c>
+      <c r="P12" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>14</v>
+      </c>
+      <c r="R12" s="2">
+        <v>15</v>
+      </c>
+      <c r="S12" s="2">
+        <v>16</v>
+      </c>
+      <c r="T12" s="2">
+        <v>17</v>
+      </c>
+      <c r="U12" s="2">
         <v>18</v>
       </c>
+      <c r="V12" s="2">
+        <v>19</v>
+      </c>
+      <c r="W12" s="2">
+        <v>20</v>
+      </c>
+      <c r="X12" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>28</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>31</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" customHeight="1" ht="22">
-      <c r="B12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="11" t="s">
+    <row r="13" spans="1:35">
+      <c r="B13" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" customHeight="1" ht="20">
-      <c r="B13" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3">
         <f>D3-D8</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <f>E3-E8</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
         <f>F3-F8</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <f>G3-G8</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <f>H3-H8</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <f>I3-I8</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <f>J3-J8</f>
@@ -1086,73 +1485,230 @@
         <f>O3-O8</f>
         <v>0</v>
       </c>
-      <c r="P13" s="11">
-        <f>SUM(D13:O13)</f>
-        <v>1100000</v>
+      <c r="P13" s="3">
+        <f>P3-P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>Q3-Q8</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <f>R3-R8</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <f>S3-S8</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <f>T3-T8</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <f>U3-U8</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <f>V3-V8</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <f>W3-W8</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <f>X3-X8</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <f>Y3-Y8</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <f>Z3-Z8</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <f>AA3-AA8</f>
+        <v>-100000</v>
+      </c>
+      <c r="AB13" s="3">
+        <f>AB3-AB8</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <f>AC3-AC8</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <f>AD3-AD8</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <f>AE3-AE8</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <f>AF3-AF8</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <f>AG3-AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <f>AH3-AH8</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <f>SUM(D13:AH13)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" customHeight="1" ht="20">
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="11">
+    <row r="14" spans="1:35">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
         <f>SUM(C13:C13)</f>
         <v>2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="4">
         <f>SUM(D13:D13)</f>
-        <v>100000</v>
-      </c>
-      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <f>SUM(E13:E13)</f>
-        <v>200000</v>
-      </c>
-      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
         <f>SUM(F13:F13)</f>
-        <v>200000</v>
-      </c>
-      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
         <f>SUM(G13:G13)</f>
-        <v>200000</v>
-      </c>
-      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <f>SUM(H13:H13)</f>
-        <v>200000</v>
-      </c>
-      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
         <f>SUM(I13:I13)</f>
-        <v>100000</v>
-      </c>
-      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
         <f>SUM(J13:J13)</f>
         <v>100000</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="4">
         <f>SUM(K13:K13)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="4">
         <f>SUM(L13:L13)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="4">
         <f>SUM(M13:M13)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="4">
         <f>SUM(N13:N13)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="4">
         <f>SUM(O13:O13)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="4">
         <f>SUM(P13:P13)</f>
-        <v>1100000</v>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>SUM(Q13:Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <f>SUM(R13:R13)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <f>SUM(S13:S13)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>SUM(T13:T13)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <f>SUM(U13:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <f>SUM(V13:V13)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <f>SUM(W13:W13)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <f>SUM(X13:X13)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f>SUM(Y13:Y13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <f>SUM(Z13:Z13)</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>SUM(AA13:AA13)</f>
+        <v>-100000</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>SUM(AB13:AB13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>SUM(AC13:AC13)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <f>SUM(AD13:AD13)</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUM(AE13:AE13)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUM(AF13:AF13)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUM(AG13:AG13)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4">
+        <f>SUM(AH13:AH13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>SUM(AI13:AI13)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B11:F11"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -1173,37 +1729,37 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="true" style="0"/>
+    <col min="1" max="1" width="9" customWidth="true" style="0"/>
     <col min="2" max="2" width="17" customWidth="true" style="0"/>
     <col min="3" max="3" width="14" customWidth="true" style="0"/>
     <col min="4" max="4" width="13" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customHeight="1" ht="26.5">
+    <row r="1" spans="1:36" customHeight="1" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" customHeight="1" ht="22">
+    <row r="2" spans="1:36" customHeight="1" ht="24">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -1232,408 +1788,904 @@
       <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="2">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2">
+        <v>15</v>
+      </c>
+      <c r="T2" s="2">
+        <v>16</v>
+      </c>
+      <c r="U2" s="2">
+        <v>17</v>
+      </c>
+      <c r="V2" s="2">
+        <v>18</v>
+      </c>
+      <c r="W2" s="2">
+        <v>19</v>
+      </c>
+      <c r="X2" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="2">
         <v>23</v>
       </c>
+      <c r="AB2" s="2">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" customHeight="1" ht="22">
+    <row r="3" spans="1:36" customHeight="1" ht="17">
       <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="2">
+        <f>SUM(E3:AI3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" customHeight="1" ht="17">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="3">
         <v>100000</v>
       </c>
-      <c r="E3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>SUM(E3:P3)</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="22">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5">
-        <v>100000</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3">
-        <v>100000</v>
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K4" s="3">
         <v>100000</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f>SUM(E4:AI4)</f>
         <v>100000</v>
       </c>
-      <c r="M4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:36" customHeight="1" ht="17">
+      <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>SUM(E4:P4)</f>
-        <v>300000</v>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="2">
+        <f>SUM(E5:AI5)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" customHeight="1" ht="22">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5">
-        <v>100000</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="2">
-        <f>SUM(E5:P5)</f>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+    <row r="6" spans="1:36">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <f>SUM(E3:E5)</f>
-        <v>100000</v>
-      </c>
-      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <f>SUM(F3:F5)</f>
-        <v>200000</v>
-      </c>
-      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <f>SUM(G3:G5)</f>
-        <v>200000</v>
-      </c>
-      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <f>SUM(H3:H5)</f>
-        <v>200000</v>
-      </c>
-      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <f>SUM(I3:I5)</f>
-        <v>200000</v>
-      </c>
-      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <f>SUM(J3:J5)</f>
-        <v>100000</v>
-      </c>
-      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <f>SUM(K3:K5)</f>
         <v>100000</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <f>SUM(L3:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>SUM(M3:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>SUM(N3:N5)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <f>SUM(O3:O5)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <f>SUM(P3:P5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>SUM(Q3:Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <f>SUM(R3:R5)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <f>SUM(S3:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUM(T3:T5)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <f>SUM(U3:U5)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <f>SUM(V3:V5)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <f>SUM(W3:W5)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <f>SUM(X3:X5)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>SUM(Y3:Y5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>SUM(Z3:Z5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>SUM(AA3:AA5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>SUM(AB3:AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>SUM(AC3:AC5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <f>SUM(AD3:AD5)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>SUM(AE3:AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>SUM(AF3:AF5)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>SUM(AG3:AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>SUM(AH3:AH5)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>SUM(AI3:AI5)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>SUM(AJ3:AJ5)</f>
         <v>100000</v>
       </c>
-      <c r="M6" s="6">
-        <f>SUM(M3:M5)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <f>SUM(N3:N5)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <f>SUM(O3:O5)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <f>SUM(P3:P5)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <f>SUM(Q3:Q5)</f>
-        <v>1200000</v>
-      </c>
     </row>
-    <row r="9" spans="1:17" customHeight="1" ht="26.5">
+    <row r="9" spans="1:36" customHeight="1" ht="20">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
+      <c r="O10" s="2">
+        <v>11</v>
+      </c>
+      <c r="P10" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>13</v>
+      </c>
+      <c r="R10" s="2">
+        <v>14</v>
+      </c>
+      <c r="S10" s="2">
+        <v>15</v>
+      </c>
+      <c r="T10" s="2">
+        <v>16</v>
+      </c>
+      <c r="U10" s="2">
         <v>17</v>
       </c>
+      <c r="V10" s="2">
+        <v>18</v>
+      </c>
+      <c r="W10" s="2">
+        <v>19</v>
+      </c>
+      <c r="X10" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>24</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>26</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>27</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>28</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>30</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>31</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" customHeight="1" ht="22">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="22">
+    <row r="11" spans="1:36">
       <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="3">
+        <v>24</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB11" s="3">
         <v>100000</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="7">
-        <f>SUM(E11:P11)</f>
+      <c r="AC11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f>SUM(E11:AI11)</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+    <row r="12" spans="1:36">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
         <f>SUM(E11:E11)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <f>SUM(F11:F11)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <f>SUM(G11:G11)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <f>SUM(H11:H11)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <f>SUM(I11:I11)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <f>SUM(J11:J11)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <f>SUM(K11:K11)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <f>SUM(L11:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUM(M11:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <f>SUM(N11:N11)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f>SUM(O11:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <f>SUM(P11:P11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>SUM(Q11:Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <f>SUM(R11:R11)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f>SUM(S11:S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <f>SUM(T11:T11)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <f>SUM(U11:U11)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <f>SUM(V11:V11)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <f>SUM(W11:W11)</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f>SUM(X11:X11)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>SUM(Y11:Y11)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <f>SUM(Z11:Z11)</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>SUM(AA11:AA11)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>SUM(AB11:AB11)</f>
         <v>100000</v>
       </c>
-      <c r="M12" s="6">
-        <f>SUM(M11:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <f>SUM(N11:N11)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <f>SUM(O11:O11)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <f>SUM(P11:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <f>SUM(Q11:Q11)</f>
+      <c r="AC12" s="4">
+        <f>SUM(AC11:AC11)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <f>SUM(AD11:AD11)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <f>SUM(AE11:AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <f>SUM(AF11:AF11)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <f>SUM(AG11:AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <f>SUM(AH11:AH11)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <f>SUM(AI11:AI11)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>SUM(AJ11:AJ11)</f>
         <v>100000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A12:D12"/>
